--- a/data/trans_camb/P16B07-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Clase-trans_camb.xlsx
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,79</t>
+          <t>0,0; 21,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,64</t>
+          <t>0,0; 20,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,53</t>
+          <t>0,0; 18,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,4</t>
+          <t>0,0; 18,91</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,51</t>
+          <t>0,0; 27,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,27</t>
+          <t>0,0; 25,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,26</t>
+          <t>0,0; 22,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,07</t>
+          <t>0,0; 23,8</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,38</t>
+          <t>0,0; 33,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,43</t>
+          <t>0,0; 32,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 0,0</t>
+          <t>-20,93; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 0,0</t>
+          <t>-34,88; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 14,67</t>
+          <t>-4,23; 14,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 12,8</t>
+          <t>-6,23; 11,23</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,71</t>
+          <t>0,0; 50,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,83</t>
+          <t>0,0; 47,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 0,0</t>
+          <t>-20,93; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 0,0</t>
+          <t>-34,88; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 17,17</t>
+          <t>-4,24; 16,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 15,07</t>
+          <t>-6,24; 12,9</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,92</t>
+          <t>0,0; 41,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,76</t>
+          <t>0,0; 39,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 8,6</t>
+          <t>-2,5; 8,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,12</t>
+          <t>0,0; 9,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 10,65</t>
+          <t>-1,59; 9,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,86</t>
+          <t>0,0; 12,33</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,06</t>
+          <t>0,0; 72,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,08</t>
+          <t>0,0; 64,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 9,4</t>
+          <t>-2,5; 9,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,51</t>
+          <t>0,0; 10,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 11,93</t>
+          <t>-1,6; 10,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,19</t>
+          <t>0,0; 14,07</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,33; 12,42</t>
+          <t>0,0; 11,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 10,75</t>
+          <t>-1,0; 9,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,21; 11,71</t>
+          <t>1,18; 10,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 10,27</t>
+          <t>-1,03; 9,22</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1,35; 14,18</t>
+          <t>0,0; 13,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 12,18</t>
+          <t>-1,01; 11,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,22; 13,27</t>
+          <t>1,19; 11,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 11,72</t>
+          <t>-1,04; 10,16</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,06</t>
+          <t>0,0; 9,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,89</t>
+          <t>0,0; 8,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,1</t>
+          <t>-0,3; 4,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,19</t>
+          <t>-0,14; 4,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,58</t>
+          <t>0,33; 4,68</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,0</t>
+          <t>0,42; 4,65</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,96</t>
+          <t>0,0; 10,61</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>0,0; 9,39</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,42</t>
+          <t>-0,3; 5,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,53</t>
+          <t>-0,14; 5,01</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,87</t>
+          <t>0,34; 4,95</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,31</t>
+          <t>0,44; 4,92</t>
         </is>
       </c>
     </row>
